--- a/cbrunner/Parameters/Parameters_ProductDisposal.xlsx
+++ b/cbrunner/Parameters/Parameters_ProductDisposal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B675CBE7-BED7-4ADF-B2E3-E5C8F2E78E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3FE641-D263-45A2-8DF6-C5F77B044C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="0" windowWidth="20910" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Paper_hl</t>
   </si>
   <si>
-    <t>Firewood_hl</t>
-  </si>
-  <si>
     <t>Dymond (2012)</t>
   </si>
   <si>
@@ -174,9 +171,6 @@
     <t>Assumed equal to shipping</t>
   </si>
   <si>
-    <t>Energy_hl</t>
-  </si>
-  <si>
     <t>EnergyCombustionFracEmitCO2</t>
   </si>
   <si>
@@ -196,6 +190,9 @@
   </si>
   <si>
     <t>Reference</t>
+  </si>
+  <si>
+    <t>2024 and earlier version</t>
   </si>
 </sst>
 </file>
@@ -299,10 +296,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -602,501 +595,538 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.21875" customWidth="1"/>
+    <col min="1" max="1" width="48.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="9" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="9" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3">
+        <f>0.48*D2</f>
+        <v>43.199999999999996</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3">
         <v>90</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3">
+        <f t="shared" ref="B3:B15" si="0">0.48*D3</f>
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3">
         <v>75</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
         <v>75</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3">
+        <f t="shared" si="0"/>
+        <v>18.239999999999998</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3">
         <v>38</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.96</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3">
+        <f t="shared" si="0"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3">
         <v>30</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="3">
+        <f t="shared" si="0"/>
+        <v>18.239999999999998</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3">
         <v>38</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3">
         <v>2.5</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B10" s="3">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>4.8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="D10" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B11" s="3">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>13.92</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B12" s="3">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>6.96</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="D12" s="3">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>7.92</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="D13" s="3">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>14.5</v>
+        <f t="shared" si="0"/>
+        <v>3.96</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="D14" s="3">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B15" s="3">
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>2.4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3">
-        <v>8.25</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="B17" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="3">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="B18" s="3">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="3">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="3">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="3">
         <v>0.03</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="3">
         <v>0.97</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="3">
         <v>0.03</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="3">
         <v>0.97</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="3">
         <v>0.03</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="3">
         <v>0.97</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="3">
         <v>0.03</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="3">
         <v>0.97</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B29" s="3">
         <v>0.03</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="3">
         <v>0.97</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B31" s="3">
         <v>0.03</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="3">
         <v>0.97</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="B33" s="3">
         <v>0.03</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>33</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="B34" s="3">
         <v>0.97</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="B35" s="3">
-        <v>0.03</v>
+        <v>0.23</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="3">
-        <v>0.97</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="3">
-        <v>0.23</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="B38" s="3">
-        <v>0.56000000000000005</v>
+        <v>0.99999850000000001</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="B40" s="3">
-        <v>0.99999850000000001</v>
+        <v>0.85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="3">
-        <v>0.98</v>
+        <v>0.22</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="3">
-        <v>0.85</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.02</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="3">
-        <v>0.22</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="B44" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
